--- a/files/MyST_LAB2_MarcoOchoac.xlsx
+++ b/files/MyST_LAB2_MarcoOchoac.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuauhtemoccorralescamacho/Documents/Semestre 9/Microestructuras de Trading/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2D53E-5930-3147-AC02-98A2417C6E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB6364-B75E-C54F-B332-E2910D7E832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22520" windowHeight="18000" xr2:uid="{AE1A67D9-E2E3-A743-8418-DF9730B11B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Posiciones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,27 +51,18 @@
     <t>buy</t>
   </si>
   <si>
-    <t>eurusd</t>
-  </si>
-  <si>
     <t>2022.09.19 07:58:21</t>
   </si>
   <si>
     <t>2022.09.16 19:47:50</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
     <t>2022.09.16 20:51:01</t>
   </si>
   <si>
     <t>2022.09.19 15:44:14</t>
   </si>
   <si>
-    <t>silver</t>
-  </si>
-  <si>
     <t>2022.09.19 16:07:42</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>sell</t>
   </si>
   <si>
-    <t>wti</t>
-  </si>
-  <si>
     <t>2022.09.19 16:34:00</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>2022.09.19 17:37:41</t>
   </si>
   <si>
-    <t>#usspx500</t>
-  </si>
-  <si>
     <t>2022.09.19 17:38:53</t>
   </si>
   <si>
@@ -147,9 +132,6 @@
     <t>2022.09.20 16:11:41</t>
   </si>
   <si>
-    <t>usdmxn</t>
-  </si>
-  <si>
     <t>2022.09.20 17:22:23</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>2022.09.21 15:22:59</t>
   </si>
   <si>
-    <t>#wheat_z22</t>
-  </si>
-  <si>
     <t>2022.09.21 16:45:39</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>2022.09.21 15:44:49</t>
   </si>
   <si>
-    <t>gbpusd</t>
-  </si>
-  <si>
     <t>2022.09.21 21:35:11</t>
   </si>
   <si>
@@ -204,9 +180,6 @@
     <t>2022.09.21 21:06:17</t>
   </si>
   <si>
-    <t>usdcad</t>
-  </si>
-  <si>
     <t>2022.09.21 21:35:06</t>
   </si>
   <si>
@@ -225,9 +198,6 @@
     <t>2022.09.21 21:36:26</t>
   </si>
   <si>
-    <t>#usndaq100</t>
-  </si>
-  <si>
     <t>2022.09.21 21:44:52</t>
   </si>
   <si>
@@ -252,18 +222,12 @@
     <t>2022.09.23 16:31:19</t>
   </si>
   <si>
-    <t>snap.n</t>
-  </si>
-  <si>
     <t>2022.09.26 18:33:20</t>
   </si>
   <si>
     <t>2022.09.23 16:31:36</t>
   </si>
   <si>
-    <t>tsla.o</t>
-  </si>
-  <si>
     <t>2022.09.23 19:44:47</t>
   </si>
   <si>
@@ -310,6 +274,42 @@
   </si>
   <si>
     <t>Beneficio</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>#USSPX500</t>
+  </si>
+  <si>
+    <t>USDMXN</t>
+  </si>
+  <si>
+    <t>#WHEAT_Z22</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>#USNDAQ100</t>
+  </si>
+  <si>
+    <t>SNAP.N</t>
+  </si>
+  <si>
+    <t>TSLA.O</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -778,22 +778,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>1</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>78270617</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -846,7 +846,7 @@
         <v>1.00349</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="8">
         <v>0.99899000000000004</v>
@@ -866,13 +866,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="12">
         <v>78270974</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>1676.09</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" s="13">
         <v>1672.31</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>78302532</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
@@ -934,7 +934,7 @@
         <v>19.547000000000001</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="16">
         <v>19.274000000000001</v>
@@ -954,16 +954,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12">
         <v>78303850</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11">
         <v>0.3</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" s="17">
         <v>82.418000000000006</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>78310866</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>4</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J6" s="8">
         <v>85.084999999999994</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="12">
         <v>78310943</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>4</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J7" s="17">
         <v>3880.56</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7">
         <v>78311174</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J8" s="8">
         <v>3898.31</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12">
         <v>78311355</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>4</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J9" s="13">
         <v>3885.81</v>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7">
         <v>78311365</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>4</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J10" s="8">
         <v>3898.81</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" s="12">
         <v>78351124</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="11">
         <v>0.5</v>
@@ -1242,7 +1242,7 @@
         <v>0.99226000000000003</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J11" s="13">
         <v>0.99904999999999999</v>
@@ -1262,13 +1262,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>78351489</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>4</v>
@@ -1286,7 +1286,7 @@
         <v>89.046000000000006</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J12" s="16">
         <v>83.611999999999995</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B13" s="12">
         <v>78351912</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>4</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J13" s="13">
         <v>1667.23</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7">
         <v>78351952</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>4</v>
@@ -1374,7 +1374,7 @@
         <v>1693.37</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J14" s="8">
         <v>1675.16</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15" s="12">
         <v>78352081</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>4</v>
@@ -1418,7 +1418,7 @@
         <v>20.106750000000002</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J15" s="13">
         <v>19.99709</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7">
         <v>78398846</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>4</v>
@@ -1462,7 +1462,7 @@
         <v>88.403000000000006</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J16" s="16">
         <v>83.728999999999999</v>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12">
         <v>78399129</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>4</v>
@@ -1506,7 +1506,7 @@
         <v>931.75</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J17" s="13">
         <v>891.75</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7">
         <v>78399538</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>4</v>
@@ -1550,7 +1550,7 @@
         <v>3917.26</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J18" s="16">
         <v>3840.31</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12">
         <v>78400236</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>4</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J19" s="13">
         <v>1.13168</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7">
         <v>78400304</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>4</v>
@@ -1638,7 +1638,7 @@
         <v>1.1543300000000001</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J20" s="16">
         <v>1.1244799999999999</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B21" s="12">
         <v>78403898</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>4</v>
@@ -1682,7 +1682,7 @@
         <v>906.5</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J21" s="13">
         <v>906.5</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7">
         <v>78405205</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>4</v>
@@ -1726,7 +1726,7 @@
         <v>86</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J22" s="8">
         <v>77.677999999999997</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B23" s="12">
         <v>78416781</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>4</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J23" s="13">
         <v>1.3401700000000001</v>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B24" s="7">
         <v>78416998</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E24" s="6">
         <v>20</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J24" s="8">
         <v>3866.86</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B25" s="12">
         <v>78420765</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>4</v>
@@ -1858,7 +1858,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J25" s="13">
         <v>1.0634699999999999</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7">
         <v>78420870</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J26" s="8">
         <v>12016.4</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B27" s="12">
         <v>78468480</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>4</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J27" s="13">
         <v>1683.44</v>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7">
         <v>78468503</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>4</v>
@@ -1990,7 +1990,7 @@
         <v>1690</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J28" s="8">
         <v>1640</v>
@@ -2010,16 +2010,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B29" s="12">
         <v>78517120</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29" s="11">
         <v>30</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J29" s="13">
         <v>3665.21</v>
@@ -2054,16 +2054,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B30" s="12">
         <v>78518675</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E30" s="11">
         <v>20</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J30" s="13">
         <v>10.29</v>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B31" s="7">
         <v>78518704</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E31" s="6">
         <v>20</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J31" s="8">
         <v>275.41000000000003</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B32" s="12">
         <v>78582128</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>4</v>
@@ -2166,7 +2166,7 @@
         <v>3750</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J32" s="13">
         <v>3669.91</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B33" s="7">
         <v>78582853</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>4</v>
@@ -2210,7 +2210,7 @@
         <v>11500</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="J33" s="8">
         <v>11319.85</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B34" s="12">
         <v>78585019</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>4</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J34" s="13">
         <v>11295.65</v>
